--- a/Valores/Analise.xlsx
+++ b/Valores/Analise.xlsx
@@ -5,28 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\GitsLeo\Analises\Valores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Gits_leo\Analises\Valores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53E4FB0-C1BB-4C2C-B17A-27A17AB0B11F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBD8FCC-FB5A-4E83-8937-5706FED45E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AA" sheetId="1" r:id="rId1"/>
     <sheet name="Valores" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="104">
   <si>
     <t>Nome</t>
   </si>
@@ -333,6 +338,12 @@
   <si>
     <t>Data</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Numero total</t>
+  </si>
 </sst>
 </file>
 
@@ -481,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,12 +536,1429 @@
     <xf numFmtId="17" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="40">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="22" formatCode="mmm/yy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -541,6 +1969,52 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB758177-6504-44FB-B3AD-CB08E7D5A64A}" name="Tabela1" displayName="Tabela1" ref="A1:AK80" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="39" dataCellStyle="Moeda">
+  <autoFilter ref="A1:AK80" xr:uid="{82F70B5F-3532-4DC9-9CC0-85DBDA9D704C}"/>
+  <tableColumns count="37">
+    <tableColumn id="1" xr3:uid="{76A4BBCA-4B86-4D2C-9117-5B63C7887E3A}" name="Nome" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{1CEE0E46-3897-45AB-B23D-77BEBE9C1F3B}" name="jan/18" dataDxfId="37" dataCellStyle="Moeda"/>
+    <tableColumn id="3" xr3:uid="{310CDA75-AA3D-4768-848F-06158ECDECE2}" name="fev/18" dataDxfId="36" dataCellStyle="Moeda"/>
+    <tableColumn id="4" xr3:uid="{9B415344-3767-413C-BF17-64CE93371C94}" name="mar/18" dataDxfId="35" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{B1AB974C-E67C-452B-ABBA-F66BBBC62969}" name="abr/18" dataDxfId="34" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{76C86A3E-4DC6-49F0-8F07-4E91ED977948}" name="mai/18" dataDxfId="33" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{8A1B91FB-4A64-41C0-8BAA-F4824FDA2422}" name="jun/18" dataDxfId="32" dataCellStyle="Moeda"/>
+    <tableColumn id="8" xr3:uid="{44D325B0-A353-49F9-B021-A1F23EFD65E1}" name="jul/18" dataDxfId="31" dataCellStyle="Moeda"/>
+    <tableColumn id="9" xr3:uid="{7D134168-136C-4EE2-BE07-0D8D5EFBF1C0}" name="ago/18" dataDxfId="30" dataCellStyle="Moeda"/>
+    <tableColumn id="10" xr3:uid="{7BFF10E1-FC7E-47AE-94FA-0551F379C32F}" name="set/18" dataDxfId="29" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{E54C92EF-1BE9-450B-9583-3486B750767F}" name="out/18" dataDxfId="28" dataCellStyle="Moeda"/>
+    <tableColumn id="12" xr3:uid="{6C9E9676-936B-4943-8B69-6FE193678A13}" name="nov/18" dataDxfId="27" dataCellStyle="Moeda"/>
+    <tableColumn id="13" xr3:uid="{E6CBBEC9-304C-4B72-B0FF-C7356A69ECAB}" name="dez/18" dataDxfId="26" dataCellStyle="Moeda"/>
+    <tableColumn id="14" xr3:uid="{1C43834E-2C50-4432-85C5-DFDF645987AA}" name="jan/19" dataDxfId="25" dataCellStyle="Moeda"/>
+    <tableColumn id="15" xr3:uid="{E2A110B7-5A57-4163-B01B-0C73F29E2641}" name="fev/19" dataDxfId="24" dataCellStyle="Moeda"/>
+    <tableColumn id="16" xr3:uid="{E2FAB8DE-0065-41C5-964B-69371CF59020}" name="mar/19" dataDxfId="23" dataCellStyle="Moeda"/>
+    <tableColumn id="17" xr3:uid="{8B7130BD-DE23-4F7C-A02C-0609D961ECE2}" name="abr/19" dataDxfId="22" dataCellStyle="Moeda"/>
+    <tableColumn id="18" xr3:uid="{353A1C49-3A85-48E7-9812-EEAEB59B033B}" name="mai/19" dataDxfId="21" dataCellStyle="Moeda"/>
+    <tableColumn id="19" xr3:uid="{47623A0B-823F-41A7-8829-2F79B8C6513C}" name="jun/19" dataDxfId="20" dataCellStyle="Moeda"/>
+    <tableColumn id="20" xr3:uid="{F3F83375-B48C-41D6-94D2-6EEB956BDED2}" name="jul/19" dataDxfId="19" dataCellStyle="Moeda"/>
+    <tableColumn id="21" xr3:uid="{ABB4F095-4265-4050-A92C-71E87C8F70BE}" name="ago/19" dataDxfId="18" dataCellStyle="Moeda"/>
+    <tableColumn id="22" xr3:uid="{CAD2D39D-3989-4842-83DB-E436E48B7541}" name="set/19" dataDxfId="17" dataCellStyle="Moeda"/>
+    <tableColumn id="23" xr3:uid="{1C229AAC-2A02-4F58-84D8-2F18B44C1054}" name="out/19" dataDxfId="16" dataCellStyle="Moeda"/>
+    <tableColumn id="24" xr3:uid="{447E16D8-59B9-4AD4-B617-1085127A0BEF}" name="nov/19" dataDxfId="15" dataCellStyle="Moeda"/>
+    <tableColumn id="25" xr3:uid="{8BB0E281-0740-483F-8DF8-9B8E4AE85E45}" name="dez/19" dataDxfId="14" dataCellStyle="Moeda"/>
+    <tableColumn id="26" xr3:uid="{1E32916F-5581-4504-A1CC-54CE6B41AF8B}" name="jan/20" dataDxfId="13" dataCellStyle="Moeda"/>
+    <tableColumn id="27" xr3:uid="{3D283441-CF39-40E9-B071-50CE0339FEE7}" name="fev/20" dataDxfId="12" dataCellStyle="Moeda"/>
+    <tableColumn id="28" xr3:uid="{A416A20B-2A59-4A57-9471-1019AD3EF9D6}" name="mar/20" dataDxfId="11" dataCellStyle="Moeda"/>
+    <tableColumn id="29" xr3:uid="{9B4E8238-703F-4422-AC77-CFBFDDA47451}" name="abr/20" dataDxfId="10" dataCellStyle="Moeda"/>
+    <tableColumn id="30" xr3:uid="{690E8433-4255-4548-B9EC-0820B02A61E7}" name="mai/20" dataDxfId="9" dataCellStyle="Moeda"/>
+    <tableColumn id="31" xr3:uid="{F98F0846-5EFE-43BC-B37F-2B02D15B7DDA}" name="jun/20" dataDxfId="8" dataCellStyle="Moeda"/>
+    <tableColumn id="32" xr3:uid="{0B2DB478-6A4C-40A1-A447-E7EF6E8D9F10}" name="jul/20" dataDxfId="7" dataCellStyle="Moeda"/>
+    <tableColumn id="33" xr3:uid="{1570F793-81E2-4EAA-9177-B040946821C5}" name="ago/20" dataDxfId="6" dataCellStyle="Moeda"/>
+    <tableColumn id="34" xr3:uid="{D43A6A58-4316-4777-861D-E4F2C783C756}" name="set/20" dataDxfId="5" dataCellStyle="Moeda"/>
+    <tableColumn id="35" xr3:uid="{82E0604D-589C-4CFB-B43E-3BF9D46A8AF3}" name="out/20" dataDxfId="4" dataCellStyle="Moeda"/>
+    <tableColumn id="36" xr3:uid="{A57B3B53-A534-4764-85C0-7D60FF89E39C}" name="nov/20" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="37" xr3:uid="{82C62BE8-A353-470C-A940-DD4C88AA82CE}" name="dez/20" dataDxfId="2" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -806,10 +2280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK78"/>
+  <dimension ref="A1:AK80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA77" sqref="AA77"/>
+    <sheetView tabSelected="1" topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,12 +2293,8 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -843,120 +2313,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AF1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AH1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AI1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="19" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="15" t="s">
         <v>37</v>
       </c>
       <c r="B2" s="8"/>
@@ -1032,10 +2502,10 @@
       <c r="AH2" s="8"/>
       <c r="AI2" s="8"/>
       <c r="AJ2" s="8"/>
-      <c r="AK2" s="9"/>
+      <c r="AK2" s="8"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="11"/>
@@ -1113,10 +2583,10 @@
       <c r="AH3" s="11"/>
       <c r="AI3" s="11"/>
       <c r="AJ3" s="11"/>
-      <c r="AK3" s="12"/>
+      <c r="AK3" s="11"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="8"/>
@@ -1192,10 +2662,10 @@
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
       <c r="AJ4" s="8"/>
-      <c r="AK4" s="9"/>
+      <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="16" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="11"/>
@@ -1273,10 +2743,10 @@
       <c r="AH5" s="11"/>
       <c r="AI5" s="11"/>
       <c r="AJ5" s="11"/>
-      <c r="AK5" s="12"/>
+      <c r="AK5" s="11"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="15" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="8"/>
@@ -1352,10 +2822,10 @@
       <c r="AH6" s="8"/>
       <c r="AI6" s="8"/>
       <c r="AJ6" s="8"/>
-      <c r="AK6" s="9"/>
+      <c r="AK6" s="8"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="11"/>
@@ -1433,10 +2903,10 @@
       <c r="AH7" s="11"/>
       <c r="AI7" s="11"/>
       <c r="AJ7" s="11"/>
-      <c r="AK7" s="12"/>
+      <c r="AK7" s="11"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="8"/>
@@ -1502,10 +2972,10 @@
       <c r="AH8" s="8"/>
       <c r="AI8" s="8"/>
       <c r="AJ8" s="8"/>
-      <c r="AK8" s="9"/>
+      <c r="AK8" s="8"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B9" s="11"/>
@@ -1581,10 +3051,10 @@
       <c r="AH9" s="11"/>
       <c r="AI9" s="11"/>
       <c r="AJ9" s="11"/>
-      <c r="AK9" s="12"/>
+      <c r="AK9" s="11"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="15" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="8"/>
@@ -1660,10 +3130,10 @@
       <c r="AH10" s="8"/>
       <c r="AI10" s="8"/>
       <c r="AJ10" s="8"/>
-      <c r="AK10" s="9"/>
+      <c r="AK10" s="8"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="16" t="s">
         <v>43</v>
       </c>
       <c r="B11" s="11"/>
@@ -1735,10 +3205,10 @@
       <c r="AH11" s="11"/>
       <c r="AI11" s="11"/>
       <c r="AJ11" s="11"/>
-      <c r="AK11" s="12"/>
+      <c r="AK11" s="11"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="8"/>
@@ -1808,10 +3278,10 @@
       <c r="AH12" s="8"/>
       <c r="AI12" s="8"/>
       <c r="AJ12" s="8"/>
-      <c r="AK12" s="9"/>
+      <c r="AK12" s="8"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="16" t="s">
         <v>45</v>
       </c>
       <c r="B13" s="11"/>
@@ -1879,10 +3349,10 @@
       <c r="AH13" s="11"/>
       <c r="AI13" s="11"/>
       <c r="AJ13" s="11"/>
-      <c r="AK13" s="12"/>
+      <c r="AK13" s="11"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="15" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="8"/>
@@ -1950,10 +3420,10 @@
       <c r="AH14" s="8"/>
       <c r="AI14" s="8"/>
       <c r="AJ14" s="8"/>
-      <c r="AK14" s="9"/>
+      <c r="AK14" s="8"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="16" t="s">
         <v>47</v>
       </c>
       <c r="B15" s="11"/>
@@ -2021,10 +3491,10 @@
       <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
-      <c r="AK15" s="12"/>
+      <c r="AK15" s="11"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="15" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="8"/>
@@ -2092,10 +3562,10 @@
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
-      <c r="AK16" s="9"/>
+      <c r="AK16" s="8"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="16" t="s">
         <v>49</v>
       </c>
       <c r="B17" s="11"/>
@@ -2163,10 +3633,10 @@
       <c r="AH17" s="11"/>
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
-      <c r="AK17" s="12"/>
+      <c r="AK17" s="11"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="8"/>
@@ -2234,10 +3704,10 @@
       <c r="AH18" s="8"/>
       <c r="AI18" s="8"/>
       <c r="AJ18" s="8"/>
-      <c r="AK18" s="9"/>
+      <c r="AK18" s="8"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="16" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="11"/>
@@ -2303,10 +3773,10 @@
       <c r="AH19" s="11"/>
       <c r="AI19" s="11"/>
       <c r="AJ19" s="11"/>
-      <c r="AK19" s="12"/>
+      <c r="AK19" s="11"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="8"/>
@@ -2370,10 +3840,10 @@
       <c r="AH20" s="8"/>
       <c r="AI20" s="8"/>
       <c r="AJ20" s="8"/>
-      <c r="AK20" s="9"/>
+      <c r="AK20" s="8"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="11"/>
@@ -2435,10 +3905,10 @@
       <c r="AH21" s="11"/>
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
-      <c r="AK21" s="12"/>
+      <c r="AK21" s="11"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="8"/>
@@ -2506,10 +3976,10 @@
       <c r="AH22" s="8"/>
       <c r="AI22" s="8"/>
       <c r="AJ22" s="8"/>
-      <c r="AK22" s="9"/>
+      <c r="AK22" s="8"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="16" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="11"/>
@@ -2567,10 +4037,10 @@
       <c r="AH23" s="11"/>
       <c r="AI23" s="11"/>
       <c r="AJ23" s="11"/>
-      <c r="AK23" s="12"/>
+      <c r="AK23" s="11"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="8"/>
@@ -2632,10 +4102,10 @@
       <c r="AH24" s="8"/>
       <c r="AI24" s="8"/>
       <c r="AJ24" s="8"/>
-      <c r="AK24" s="9"/>
+      <c r="AK24" s="8"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="11"/>
@@ -2695,10 +4165,10 @@
       <c r="AH25" s="11"/>
       <c r="AI25" s="11"/>
       <c r="AJ25" s="11"/>
-      <c r="AK25" s="12"/>
+      <c r="AK25" s="11"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="15" t="s">
         <v>57</v>
       </c>
       <c r="B26" s="8"/>
@@ -2758,10 +4228,10 @@
       <c r="AH26" s="8"/>
       <c r="AI26" s="8"/>
       <c r="AJ26" s="8"/>
-      <c r="AK26" s="9"/>
+      <c r="AK26" s="8"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B27" s="11"/>
@@ -2821,10 +4291,10 @@
       <c r="AH27" s="11"/>
       <c r="AI27" s="11"/>
       <c r="AJ27" s="11"/>
-      <c r="AK27" s="12"/>
+      <c r="AK27" s="11"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="15" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="8"/>
@@ -2884,10 +4354,10 @@
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
       <c r="AJ28" s="8"/>
-      <c r="AK28" s="9"/>
+      <c r="AK28" s="8"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B29" s="11"/>
@@ -2943,10 +4413,10 @@
       <c r="AH29" s="11"/>
       <c r="AI29" s="11"/>
       <c r="AJ29" s="11"/>
-      <c r="AK29" s="12"/>
+      <c r="AK29" s="11"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="8"/>
@@ -3004,10 +4474,10 @@
       <c r="AH30" s="8"/>
       <c r="AI30" s="8"/>
       <c r="AJ30" s="8"/>
-      <c r="AK30" s="9"/>
+      <c r="AK30" s="8"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="16" t="s">
         <v>60</v>
       </c>
       <c r="B31" s="11"/>
@@ -3065,10 +4535,10 @@
       <c r="AH31" s="11"/>
       <c r="AI31" s="11"/>
       <c r="AJ31" s="11"/>
-      <c r="AK31" s="12"/>
+      <c r="AK31" s="11"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="8"/>
@@ -3126,10 +4596,10 @@
       <c r="AH32" s="8"/>
       <c r="AI32" s="8"/>
       <c r="AJ32" s="8"/>
-      <c r="AK32" s="9"/>
+      <c r="AK32" s="8"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="16" t="s">
         <v>62</v>
       </c>
       <c r="B33" s="11"/>
@@ -3187,10 +4657,10 @@
       <c r="AH33" s="11"/>
       <c r="AI33" s="11"/>
       <c r="AJ33" s="11"/>
-      <c r="AK33" s="12"/>
+      <c r="AK33" s="11"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="15" t="s">
         <v>63</v>
       </c>
       <c r="B34" s="8"/>
@@ -3248,10 +4718,10 @@
       <c r="AH34" s="8"/>
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
-      <c r="AK34" s="9"/>
+      <c r="AK34" s="8"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B35" s="11"/>
@@ -3309,10 +4779,10 @@
       <c r="AH35" s="11"/>
       <c r="AI35" s="11"/>
       <c r="AJ35" s="11"/>
-      <c r="AK35" s="12"/>
+      <c r="AK35" s="11"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="15" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="8"/>
@@ -3366,10 +4836,10 @@
       <c r="AH36" s="8"/>
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
-      <c r="AK36" s="9"/>
+      <c r="AK36" s="8"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B37" s="11"/>
@@ -3421,10 +4891,10 @@
       <c r="AH37" s="11"/>
       <c r="AI37" s="11"/>
       <c r="AJ37" s="11"/>
-      <c r="AK37" s="12"/>
+      <c r="AK37" s="11"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B38" s="8"/>
@@ -3476,10 +4946,10 @@
       <c r="AH38" s="8"/>
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8"/>
-      <c r="AK38" s="9"/>
+      <c r="AK38" s="8"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="16" t="s">
         <v>68</v>
       </c>
       <c r="B39" s="11"/>
@@ -3531,10 +5001,10 @@
       <c r="AH39" s="11"/>
       <c r="AI39" s="11"/>
       <c r="AJ39" s="11"/>
-      <c r="AK39" s="12"/>
+      <c r="AK39" s="11"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="15" t="s">
         <v>69</v>
       </c>
       <c r="B40" s="8"/>
@@ -3586,10 +5056,10 @@
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
-      <c r="AK40" s="9"/>
+      <c r="AK40" s="8"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="16" t="s">
         <v>70</v>
       </c>
       <c r="B41" s="11"/>
@@ -3637,10 +5107,10 @@
       <c r="AH41" s="11"/>
       <c r="AI41" s="11"/>
       <c r="AJ41" s="11"/>
-      <c r="AK41" s="12"/>
+      <c r="AK41" s="11"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="15" t="s">
         <v>71</v>
       </c>
       <c r="B42" s="8"/>
@@ -3690,10 +5160,10 @@
       <c r="AH42" s="8"/>
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
-      <c r="AK42" s="9"/>
+      <c r="AK42" s="8"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="16" t="s">
         <v>72</v>
       </c>
       <c r="B43" s="11"/>
@@ -3745,10 +5215,10 @@
       <c r="AH43" s="11"/>
       <c r="AI43" s="11"/>
       <c r="AJ43" s="11"/>
-      <c r="AK43" s="12"/>
+      <c r="AK43" s="11"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="15" t="s">
         <v>73</v>
       </c>
       <c r="B44" s="8"/>
@@ -3798,10 +5268,10 @@
       <c r="AH44" s="8"/>
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
-      <c r="AK44" s="9"/>
+      <c r="AK44" s="8"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B45" s="11"/>
@@ -3851,10 +5321,10 @@
       <c r="AH45" s="11"/>
       <c r="AI45" s="11"/>
       <c r="AJ45" s="11"/>
-      <c r="AK45" s="12"/>
+      <c r="AK45" s="11"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B46" s="8"/>
@@ -3904,10 +5374,10 @@
       <c r="AH46" s="8"/>
       <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
-      <c r="AK46" s="9"/>
+      <c r="AK46" s="8"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="16" t="s">
         <v>75</v>
       </c>
       <c r="B47" s="11"/>
@@ -3957,10 +5427,10 @@
       <c r="AH47" s="11"/>
       <c r="AI47" s="11"/>
       <c r="AJ47" s="11"/>
-      <c r="AK47" s="12"/>
+      <c r="AK47" s="11"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="15" t="s">
         <v>76</v>
       </c>
       <c r="B48" s="8"/>
@@ -4010,10 +5480,10 @@
       <c r="AH48" s="8"/>
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
-      <c r="AK48" s="9"/>
+      <c r="AK48" s="8"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B49" s="11"/>
@@ -4063,10 +5533,10 @@
       <c r="AH49" s="11"/>
       <c r="AI49" s="11"/>
       <c r="AJ49" s="11"/>
-      <c r="AK49" s="12"/>
+      <c r="AK49" s="11"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="17" t="s">
         <v>78</v>
       </c>
       <c r="B50" s="8"/>
@@ -4116,10 +5586,10 @@
       <c r="AH50" s="8"/>
       <c r="AI50" s="8"/>
       <c r="AJ50" s="8"/>
-      <c r="AK50" s="9"/>
+      <c r="AK50" s="8"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B51" s="11"/>
@@ -4169,10 +5639,10 @@
       <c r="AH51" s="11"/>
       <c r="AI51" s="11"/>
       <c r="AJ51" s="11"/>
-      <c r="AK51" s="12"/>
+      <c r="AK51" s="11"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="15" t="s">
         <v>79</v>
       </c>
       <c r="B52" s="8"/>
@@ -4222,10 +5692,10 @@
       <c r="AH52" s="8"/>
       <c r="AI52" s="8"/>
       <c r="AJ52" s="8"/>
-      <c r="AK52" s="9"/>
+      <c r="AK52" s="8"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B53" s="11"/>
@@ -4271,10 +5741,10 @@
       <c r="AH53" s="11"/>
       <c r="AI53" s="11"/>
       <c r="AJ53" s="11"/>
-      <c r="AK53" s="12"/>
+      <c r="AK53" s="11"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="15" t="s">
         <v>80</v>
       </c>
       <c r="B54" s="8"/>
@@ -4320,10 +5790,10 @@
       <c r="AH54" s="8"/>
       <c r="AI54" s="8"/>
       <c r="AJ54" s="8"/>
-      <c r="AK54" s="9"/>
+      <c r="AK54" s="8"/>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="16" t="s">
         <v>81</v>
       </c>
       <c r="B55" s="11"/>
@@ -4369,10 +5839,10 @@
       <c r="AH55" s="11"/>
       <c r="AI55" s="11"/>
       <c r="AJ55" s="11"/>
-      <c r="AK55" s="12"/>
+      <c r="AK55" s="11"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="15" t="s">
         <v>82</v>
       </c>
       <c r="B56" s="8"/>
@@ -4418,10 +5888,10 @@
       <c r="AH56" s="8"/>
       <c r="AI56" s="8"/>
       <c r="AJ56" s="8"/>
-      <c r="AK56" s="9"/>
+      <c r="AK56" s="8"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B57" s="11"/>
@@ -4467,10 +5937,10 @@
       <c r="AH57" s="11"/>
       <c r="AI57" s="11"/>
       <c r="AJ57" s="11"/>
-      <c r="AK57" s="12"/>
+      <c r="AK57" s="11"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="15" t="s">
         <v>84</v>
       </c>
       <c r="B58" s="8"/>
@@ -4512,10 +5982,10 @@
       <c r="AH58" s="8"/>
       <c r="AI58" s="8"/>
       <c r="AJ58" s="8"/>
-      <c r="AK58" s="9"/>
+      <c r="AK58" s="8"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B59" s="11"/>
@@ -4555,10 +6025,10 @@
       <c r="AH59" s="11"/>
       <c r="AI59" s="11"/>
       <c r="AJ59" s="11"/>
-      <c r="AK59" s="12"/>
+      <c r="AK59" s="11"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="15" t="s">
         <v>85</v>
       </c>
       <c r="B60" s="8"/>
@@ -4596,10 +6066,10 @@
       <c r="AH60" s="8"/>
       <c r="AI60" s="8"/>
       <c r="AJ60" s="8"/>
-      <c r="AK60" s="9"/>
+      <c r="AK60" s="8"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B61" s="11"/>
@@ -4637,10 +6107,10 @@
       <c r="AH61" s="11"/>
       <c r="AI61" s="11"/>
       <c r="AJ61" s="11"/>
-      <c r="AK61" s="12"/>
+      <c r="AK61" s="11"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="15" t="s">
         <v>87</v>
       </c>
       <c r="B62" s="8"/>
@@ -4678,10 +6148,10 @@
       <c r="AH62" s="8"/>
       <c r="AI62" s="8"/>
       <c r="AJ62" s="8"/>
-      <c r="AK62" s="9"/>
+      <c r="AK62" s="8"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B63" s="11"/>
@@ -4719,10 +6189,10 @@
       <c r="AH63" s="11"/>
       <c r="AI63" s="11"/>
       <c r="AJ63" s="11"/>
-      <c r="AK63" s="12"/>
+      <c r="AK63" s="11"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="15" t="s">
         <v>89</v>
       </c>
       <c r="B64" s="8"/>
@@ -4760,10 +6230,10 @@
       <c r="AH64" s="8"/>
       <c r="AI64" s="8"/>
       <c r="AJ64" s="8"/>
-      <c r="AK64" s="9"/>
+      <c r="AK64" s="8"/>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="16" t="s">
         <v>90</v>
       </c>
       <c r="B65" s="11"/>
@@ -4809,10 +6279,10 @@
       <c r="AH65" s="11"/>
       <c r="AI65" s="11"/>
       <c r="AJ65" s="11"/>
-      <c r="AK65" s="12"/>
+      <c r="AK65" s="11"/>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="15" t="s">
         <v>90</v>
       </c>
       <c r="B66" s="8"/>
@@ -4858,10 +6328,10 @@
       <c r="AH66" s="8"/>
       <c r="AI66" s="8"/>
       <c r="AJ66" s="8"/>
-      <c r="AK66" s="9"/>
+      <c r="AK66" s="8"/>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="16" t="s">
         <v>91</v>
       </c>
       <c r="B67" s="11"/>
@@ -4899,10 +6369,10 @@
       <c r="AH67" s="11"/>
       <c r="AI67" s="11"/>
       <c r="AJ67" s="11"/>
-      <c r="AK67" s="12"/>
+      <c r="AK67" s="11"/>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="15" t="s">
         <v>92</v>
       </c>
       <c r="B68" s="8"/>
@@ -4952,10 +6422,10 @@
       <c r="AH68" s="8"/>
       <c r="AI68" s="8"/>
       <c r="AJ68" s="8"/>
-      <c r="AK68" s="9"/>
+      <c r="AK68" s="8"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="16" t="s">
         <v>87</v>
       </c>
       <c r="B69" s="11"/>
@@ -4993,10 +6463,10 @@
       <c r="AH69" s="11"/>
       <c r="AI69" s="11"/>
       <c r="AJ69" s="11"/>
-      <c r="AK69" s="12"/>
+      <c r="AK69" s="11"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="15" t="s">
         <v>88</v>
       </c>
       <c r="B70" s="8"/>
@@ -5036,10 +6506,10 @@
       <c r="AH70" s="8"/>
       <c r="AI70" s="8"/>
       <c r="AJ70" s="8"/>
-      <c r="AK70" s="9"/>
+      <c r="AK70" s="8"/>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B71" s="11"/>
@@ -5077,10 +6547,10 @@
       <c r="AH71" s="11"/>
       <c r="AI71" s="11"/>
       <c r="AJ71" s="11"/>
-      <c r="AK71" s="12"/>
+      <c r="AK71" s="11"/>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="15" t="s">
         <v>94</v>
       </c>
       <c r="B72" s="8"/>
@@ -5118,10 +6588,10 @@
       <c r="AH72" s="8"/>
       <c r="AI72" s="8"/>
       <c r="AJ72" s="8"/>
-      <c r="AK72" s="9"/>
+      <c r="AK72" s="8"/>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B73" s="11"/>
@@ -5159,10 +6629,10 @@
       <c r="AH73" s="11"/>
       <c r="AI73" s="11"/>
       <c r="AJ73" s="11"/>
-      <c r="AK73" s="12"/>
+      <c r="AK73" s="11"/>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="15" t="s">
         <v>96</v>
       </c>
       <c r="B74" s="8"/>
@@ -5200,10 +6670,10 @@
       <c r="AH74" s="8"/>
       <c r="AI74" s="8"/>
       <c r="AJ74" s="8"/>
-      <c r="AK74" s="9"/>
+      <c r="AK74" s="8"/>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="16" t="s">
         <v>97</v>
       </c>
       <c r="B75" s="11"/>
@@ -5241,10 +6711,10 @@
       <c r="AH75" s="11"/>
       <c r="AI75" s="11"/>
       <c r="AJ75" s="11"/>
-      <c r="AK75" s="12"/>
+      <c r="AK75" s="11"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="15" t="s">
         <v>98</v>
       </c>
       <c r="B76" s="8"/>
@@ -5282,10 +6752,10 @@
       <c r="AH76" s="8"/>
       <c r="AI76" s="8"/>
       <c r="AJ76" s="8"/>
-      <c r="AK76" s="9"/>
+      <c r="AK76" s="8"/>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B77" s="11"/>
@@ -5323,51 +6793,352 @@
       <c r="AH77" s="11"/>
       <c r="AI77" s="11"/>
       <c r="AJ77" s="11"/>
-      <c r="AK77" s="12"/>
+      <c r="AK77" s="11"/>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-      <c r="AB78" s="2"/>
-      <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="2"/>
-      <c r="AF78" s="2"/>
-      <c r="AG78" s="2"/>
-      <c r="AH78" s="2"/>
-      <c r="AI78" s="2"/>
-      <c r="AJ78" s="2"/>
-      <c r="AK78" s="3"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
+    </row>
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A79" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B79" s="8">
+        <f>SUM(B2:B78)</f>
+        <v>0</v>
+      </c>
+      <c r="C79" s="8">
+        <f t="shared" ref="C79:AK79" si="0">SUM(C2:C78)</f>
+        <v>278.85000000000002</v>
+      </c>
+      <c r="D79" s="8">
+        <f t="shared" si="0"/>
+        <v>481.06000000000006</v>
+      </c>
+      <c r="E79" s="8">
+        <f t="shared" si="0"/>
+        <v>526.80000000000007</v>
+      </c>
+      <c r="F79" s="8">
+        <f t="shared" si="0"/>
+        <v>1234.77</v>
+      </c>
+      <c r="G79" s="8">
+        <f t="shared" si="0"/>
+        <v>1510.27</v>
+      </c>
+      <c r="H79" s="8">
+        <f t="shared" si="0"/>
+        <v>7173.4</v>
+      </c>
+      <c r="I79" s="8">
+        <f t="shared" si="0"/>
+        <v>8586.59</v>
+      </c>
+      <c r="J79" s="8">
+        <f t="shared" si="0"/>
+        <v>5749.579999999999</v>
+      </c>
+      <c r="K79" s="8">
+        <f t="shared" si="0"/>
+        <v>4886.13</v>
+      </c>
+      <c r="L79" s="8">
+        <f t="shared" si="0"/>
+        <v>7568.84</v>
+      </c>
+      <c r="M79" s="8">
+        <f t="shared" si="0"/>
+        <v>7753.4300000000021</v>
+      </c>
+      <c r="N79" s="8">
+        <f t="shared" si="0"/>
+        <v>11798.97</v>
+      </c>
+      <c r="O79" s="8">
+        <f t="shared" si="0"/>
+        <v>18106.38</v>
+      </c>
+      <c r="P79" s="8">
+        <f t="shared" si="0"/>
+        <v>11480.389999999998</v>
+      </c>
+      <c r="Q79" s="8">
+        <f t="shared" si="0"/>
+        <v>21517.780000000002</v>
+      </c>
+      <c r="R79" s="8">
+        <f t="shared" si="0"/>
+        <v>26192.209999999995</v>
+      </c>
+      <c r="S79" s="8">
+        <f t="shared" si="0"/>
+        <v>27678.410000000007</v>
+      </c>
+      <c r="T79" s="8">
+        <f t="shared" si="0"/>
+        <v>21710.280000000002</v>
+      </c>
+      <c r="U79" s="8">
+        <f t="shared" si="0"/>
+        <v>21558.48</v>
+      </c>
+      <c r="V79" s="8">
+        <f t="shared" si="0"/>
+        <v>13202.780000000002</v>
+      </c>
+      <c r="W79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK79" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" s="20">
+        <f>COUNT(B2:B78)</f>
+        <v>0</v>
+      </c>
+      <c r="C80" s="20">
+        <f t="shared" ref="C80:AK80" si="1">COUNT(C2:C78)</f>
+        <v>5</v>
+      </c>
+      <c r="D80" s="20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E80" s="20">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F80" s="20">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="G80" s="20">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H80" s="20">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I80" s="20">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J80" s="20">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="K80" s="20">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="L80" s="20">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M80" s="20">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="N80" s="20">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="O80" s="20">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="P80" s="20">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="Q80" s="20">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="R80" s="20">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="S80" s="20">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="T80" s="20">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="U80" s="20">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="V80" s="20">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="W80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK80" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -5375,8 +7146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E071F3B-D283-4CB5-9180-A5D01A051F75}">
   <dimension ref="A1:BZ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="K13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:V36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
